--- a/server/xlsx/test.xlsx
+++ b/server/xlsx/test.xlsx
@@ -3493,161 +3493,35 @@
       <c r="A34">
         <v>50</v>
       </c>
-      <c r="B34" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D34" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G34" t="str">
-        <v>329</v>
-      </c>
-      <c r="H34" t="str">
-        <v>A</v>
-      </c>
-      <c r="I34" t="str">
-        <v>43.25036149</v>
-      </c>
-      <c r="J34" t="str">
-        <v>-77.63214277</v>
-      </c>
-      <c r="K34" t="str">
-        <v>9302-L0089-0447-0030-ED00022</v>
-      </c>
     </row>
     <row r="35"/>
     <row r="36">
       <c r="A36">
         <v>51</v>
       </c>
-      <c r="B36" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D36" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G36" t="str">
-        <v>329</v>
-      </c>
-      <c r="H36" t="str">
-        <v>B</v>
-      </c>
-      <c r="I36" t="str">
-        <v>43.25036859</v>
-      </c>
-      <c r="J36" t="str">
-        <v>-77.63271995</v>
-      </c>
-      <c r="K36" t="str">
-        <v>9302-L0089-0447-0030-ED00024</v>
-      </c>
     </row>
     <row r="37"/>
     <row r="38">
       <c r="A38">
         <v>52</v>
       </c>
-      <c r="B38" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D38" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G38" t="str">
-        <v>329</v>
-      </c>
-      <c r="H38" t="str">
-        <v>C</v>
-      </c>
-      <c r="I38" t="str">
-        <v>43.25038195</v>
-      </c>
-      <c r="J38" t="str">
-        <v>-77.63245235</v>
-      </c>
-      <c r="K38" t="str">
-        <v>9302-L0089-0447-0030-ED00025</v>
-      </c>
     </row>
     <row r="39"/>
     <row r="40">
       <c r="A40">
         <v>53</v>
       </c>
-      <c r="B40" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D40" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G40" t="str">
-        <v>329</v>
-      </c>
-      <c r="H40" t="str">
-        <v>D</v>
-      </c>
-      <c r="I40" t="str">
-        <v>43.25059424</v>
-      </c>
-      <c r="J40" t="str">
-        <v>-77.63245686</v>
-      </c>
-      <c r="K40" t="str">
-        <v>9302-L0089-0447-0030-ED00027</v>
-      </c>
     </row>
     <row r="41"/>
     <row r="42">
       <c r="A42">
         <v>54</v>
       </c>
-      <c r="B42" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D42" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G42" t="str">
-        <v>329</v>
-      </c>
-      <c r="H42" t="str">
-        <v>E</v>
-      </c>
-      <c r="I42" t="str">
-        <v>43.25098773</v>
-      </c>
-      <c r="J42" t="str">
-        <v>-77.6324131</v>
-      </c>
-      <c r="K42" t="str">
-        <v>9302-L0089-0447-0030-ED00030</v>
-      </c>
     </row>
     <row r="43"/>
     <row r="44">
       <c r="A44">
         <v>55</v>
-      </c>
-      <c r="B44" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D44" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G44" t="str">
-        <v>329</v>
-      </c>
-      <c r="H44" t="str">
-        <v>F</v>
-      </c>
-      <c r="I44" t="str">
-        <v>43.2514718</v>
-      </c>
-      <c r="J44" t="str">
-        <v>-77.6323894</v>
-      </c>
-      <c r="K44" t="str">
-        <v>9302-L0089-0447-0030-ED00031</v>
       </c>
     </row>
     <row r="45"/>
@@ -4271,539 +4145,119 @@
       <c r="A6">
         <v>56</v>
       </c>
-      <c r="B6" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D6" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G6" t="str">
-        <v>329</v>
-      </c>
-      <c r="H6" t="str">
-        <v>G</v>
-      </c>
-      <c r="I6" t="str">
-        <v>43.25185455</v>
-      </c>
-      <c r="J6" t="str">
-        <v>-77.63238438</v>
-      </c>
-      <c r="K6" t="str">
-        <v>9302-L0089-0447-0030-ED00034</v>
-      </c>
     </row>
     <row r="7" ht="12.75" customHeight="1"/>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8">
         <v>57</v>
       </c>
-      <c r="B8" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D8" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G8" t="str">
-        <v>329</v>
-      </c>
-      <c r="H8" t="str">
-        <v>H</v>
-      </c>
-      <c r="I8" t="str">
-        <v>43.25205448</v>
-      </c>
-      <c r="J8" t="str">
-        <v>-77.63235686</v>
-      </c>
-      <c r="K8" t="str">
-        <v>9302-L0089-0447-0030-ED00035</v>
-      </c>
     </row>
     <row r="9" ht="12.75" customHeight="1"/>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10">
         <v>58</v>
       </c>
-      <c r="B10" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D10" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G10" t="str">
-        <v>329</v>
-      </c>
-      <c r="H10" t="str">
-        <v>1</v>
-      </c>
-      <c r="I10" t="str">
-        <v>43.24225829</v>
-      </c>
-      <c r="J10" t="str">
-        <v>-77.63361124</v>
-      </c>
-      <c r="K10" t="str">
-        <v>9302-L0247-0447-0030-ED00001</v>
-      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1"/>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12">
         <v>59</v>
       </c>
-      <c r="B12" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D12" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G12" t="str">
-        <v>329</v>
-      </c>
-      <c r="H12" t="str">
-        <v>2</v>
-      </c>
-      <c r="I12" t="str">
-        <v>43.242712</v>
-      </c>
-      <c r="J12" t="str">
-        <v>-77.63360961</v>
-      </c>
-      <c r="K12" t="str">
-        <v>9302-L0247-0447-0030-ED00010</v>
-      </c>
     </row>
     <row r="13" ht="12.75" customHeight="1"/>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14">
         <v>60</v>
       </c>
-      <c r="B14" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D14" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G14" t="str">
-        <v>329</v>
-      </c>
-      <c r="H14" t="str">
-        <v>3</v>
-      </c>
-      <c r="I14" t="str">
-        <v>43.24311929</v>
-      </c>
-      <c r="J14" t="str">
-        <v>-77.63358949</v>
-      </c>
-      <c r="K14" t="str">
-        <v>9302-L0247-0447-0030-ED00014</v>
-      </c>
     </row>
     <row r="15" ht="12.75" customHeight="1"/>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16">
         <v>61</v>
       </c>
-      <c r="B16" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D16" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G16" t="str">
-        <v>329</v>
-      </c>
-      <c r="H16" t="str">
-        <v>4</v>
-      </c>
-      <c r="I16" t="str">
-        <v>43.2435081</v>
-      </c>
-      <c r="J16" t="str">
-        <v>-77.63356801</v>
-      </c>
-      <c r="K16" t="str">
-        <v>9302-L0247-0447-0030-ED00015</v>
-      </c>
     </row>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18">
         <v>62</v>
       </c>
-      <c r="B18" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D18" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G18" t="str">
-        <v>329</v>
-      </c>
-      <c r="H18" t="str">
-        <v>5</v>
-      </c>
-      <c r="I18" t="str">
-        <v>43.24376009</v>
-      </c>
-      <c r="J18" t="str">
-        <v>-77.63357139</v>
-      </c>
-      <c r="K18" t="str">
-        <v>9302-L0247-0447-0030-ED00016</v>
-      </c>
     </row>
     <row r="19" ht="12.75" customHeight="1"/>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20">
         <v>63</v>
       </c>
-      <c r="B20" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D20" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G20" t="str">
-        <v>329</v>
-      </c>
-      <c r="H20" t="str">
-        <v>6</v>
-      </c>
-      <c r="I20" t="str">
-        <v>43.24419473</v>
-      </c>
-      <c r="J20" t="str">
-        <v>-77.63355129</v>
-      </c>
-      <c r="K20" t="str">
-        <v>9302-L0247-0447-0030-ED00017</v>
-      </c>
     </row>
     <row r="21" ht="12.75" customHeight="1"/>
     <row r="22">
       <c r="A22">
         <v>64</v>
       </c>
-      <c r="B22" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D22" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G22" t="str">
-        <v>329</v>
-      </c>
-      <c r="H22" t="str">
-        <v>7</v>
-      </c>
-      <c r="I22" t="str">
-        <v>43.24445987</v>
-      </c>
-      <c r="J22" t="str">
-        <v>-77.63355085</v>
-      </c>
-      <c r="K22" t="str">
-        <v>9302-L0247-0447-0030-ED00018</v>
-      </c>
     </row>
     <row r="23"/>
     <row r="24">
       <c r="A24">
         <v>65</v>
       </c>
-      <c r="B24" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D24" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G24" t="str">
-        <v>329</v>
-      </c>
-      <c r="H24" t="str">
-        <v>8</v>
-      </c>
-      <c r="I24" t="str">
-        <v>43.24474025</v>
-      </c>
-      <c r="J24" t="str">
-        <v>-77.63354713</v>
-      </c>
-      <c r="K24" t="str">
-        <v>9302-L0247-0447-0030-ED00019</v>
-      </c>
     </row>
     <row r="25"/>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26">
         <v>66</v>
       </c>
-      <c r="B26" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D26" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G26" t="str">
-        <v>329</v>
-      </c>
-      <c r="H26" t="str">
-        <v>9</v>
-      </c>
-      <c r="I26" t="str">
-        <v>43.24501423</v>
-      </c>
-      <c r="J26" t="str">
-        <v>-77.63353502</v>
-      </c>
-      <c r="K26" t="str">
-        <v>9302-L0247-0447-0030-ED00020</v>
-      </c>
     </row>
     <row r="27" ht="12.75" customHeight="1"/>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28">
         <v>67</v>
       </c>
-      <c r="B28" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D28" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G28" t="str">
-        <v>329</v>
-      </c>
-      <c r="H28" t="str">
-        <v>A</v>
-      </c>
-      <c r="I28" t="str">
-        <v>43.24576308</v>
-      </c>
-      <c r="J28" t="str">
-        <v>-77.63399098</v>
-      </c>
-      <c r="K28" t="str">
-        <v>9302-L0247-0447-0030-ED00021</v>
-      </c>
     </row>
     <row r="29" ht="12.75" customHeight="1"/>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30">
         <v>68</v>
       </c>
-      <c r="B30" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D30" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G30" t="str">
-        <v>329</v>
-      </c>
-      <c r="H30" t="str">
-        <v>B</v>
-      </c>
-      <c r="I30" t="str">
-        <v>43.24616478</v>
-      </c>
-      <c r="J30" t="str">
-        <v>-77.63398527</v>
-      </c>
-      <c r="K30" t="str">
-        <v>9302-L0247-0447-0030-ED00023</v>
-      </c>
     </row>
     <row r="31" ht="12.75" customHeight="1"/>
     <row r="32">
       <c r="A32">
         <v>69</v>
       </c>
-      <c r="B32" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D32" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G32" t="str">
-        <v>329</v>
-      </c>
-      <c r="H32" t="str">
-        <v>C</v>
-      </c>
-      <c r="I32" t="str">
-        <v>43.24656234</v>
-      </c>
-      <c r="J32" t="str">
-        <v>-77.6339654</v>
-      </c>
-      <c r="K32" t="str">
-        <v>9302-L0247-0447-0030-ED00026</v>
-      </c>
     </row>
     <row r="33"/>
     <row r="34">
       <c r="A34">
         <v>70</v>
       </c>
-      <c r="B34" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D34" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G34" t="str">
-        <v>329</v>
-      </c>
-      <c r="H34" t="str">
-        <v>D</v>
-      </c>
-      <c r="I34" t="str">
-        <v>43.24698104</v>
-      </c>
-      <c r="J34" t="str">
-        <v>-77.63394331</v>
-      </c>
-      <c r="K34" t="str">
-        <v>9302-L0247-0447-0030-ED00028</v>
-      </c>
     </row>
     <row r="35"/>
     <row r="36">
       <c r="A36">
         <v>71</v>
       </c>
-      <c r="B36" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D36" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G36" t="str">
-        <v>329</v>
-      </c>
-      <c r="H36" t="str">
-        <v>E</v>
-      </c>
-      <c r="I36" t="str">
-        <v>43.247405</v>
-      </c>
-      <c r="J36" t="str">
-        <v>-77.63391674</v>
-      </c>
-      <c r="K36" t="str">
-        <v>9302-L0247-0447-0030-ED00029</v>
-      </c>
     </row>
     <row r="37"/>
     <row r="38">
       <c r="A38">
         <v>72</v>
       </c>
-      <c r="B38" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D38" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G38" t="str">
-        <v>329</v>
-      </c>
-      <c r="H38" t="str">
-        <v>F</v>
-      </c>
-      <c r="I38" t="str">
-        <v>43.24780536</v>
-      </c>
-      <c r="J38" t="str">
-        <v>-77.63390762</v>
-      </c>
-      <c r="K38" t="str">
-        <v>9302-L0247-0447-0030-ED00032</v>
-      </c>
     </row>
     <row r="39"/>
     <row r="40">
       <c r="A40">
         <v>73</v>
       </c>
-      <c r="B40" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D40" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G40" t="str">
-        <v>329</v>
-      </c>
-      <c r="H40" t="str">
-        <v>G</v>
-      </c>
-      <c r="I40" t="str">
-        <v>43.24820871</v>
-      </c>
-      <c r="J40" t="str">
-        <v>-77.63389496</v>
-      </c>
-      <c r="K40" t="str">
-        <v>9302-L0247-0447-0030-ED00033</v>
-      </c>
     </row>
     <row r="41"/>
     <row r="42">
       <c r="A42">
         <v>74</v>
       </c>
-      <c r="B42" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D42" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G42" t="str">
-        <v>329</v>
-      </c>
-      <c r="H42" t="str">
-        <v>H</v>
-      </c>
-      <c r="I42" t="str">
-        <v>43.24863384</v>
-      </c>
-      <c r="J42" t="str">
-        <v>-77.63386774</v>
-      </c>
-      <c r="K42" t="str">
-        <v>9302-L0247-0447-0030-ED00036</v>
-      </c>
     </row>
     <row r="43"/>
     <row r="44">
       <c r="A44">
         <v>75</v>
-      </c>
-      <c r="B44" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D44" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G44" t="str">
-        <v>329</v>
-      </c>
-      <c r="H44" t="str">
-        <v>J</v>
-      </c>
-      <c r="I44" t="str">
-        <v>43.24904194</v>
-      </c>
-      <c r="J44" t="str">
-        <v>-77.63385955</v>
-      </c>
-      <c r="K44" t="str">
-        <v>9302-L0247-0447-0030-ED00037</v>
       </c>
     </row>
     <row r="45"/>
@@ -5427,539 +4881,119 @@
       <c r="A6">
         <v>76</v>
       </c>
-      <c r="B6" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D6" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G6" t="str">
-        <v>329</v>
-      </c>
-      <c r="H6" t="str">
-        <v>K</v>
-      </c>
-      <c r="I6" t="str">
-        <v>43.2494473</v>
-      </c>
-      <c r="J6" t="str">
-        <v>-77.63383783</v>
-      </c>
-      <c r="K6" t="str">
-        <v>9302-L0247-0447-0030-ED00038</v>
-      </c>
     </row>
     <row r="7" ht="12.75" customHeight="1"/>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8">
         <v>77</v>
       </c>
-      <c r="B8" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D8" t="str">
-        <v>ARMSTRONG RD</v>
-      </c>
-      <c r="G8" t="str">
-        <v>329</v>
-      </c>
-      <c r="H8" t="str">
-        <v>L</v>
-      </c>
-      <c r="I8" t="str">
-        <v>43.24966126</v>
-      </c>
-      <c r="J8" t="str">
-        <v>-77.63380048</v>
-      </c>
-      <c r="K8" t="str">
-        <v>9302-L0247-0447-0030-ED00039</v>
-      </c>
     </row>
     <row r="9" ht="12.75" customHeight="1"/>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10">
         <v>78</v>
       </c>
-      <c r="B10" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D10" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G10" t="str">
-        <v>780</v>
-      </c>
-      <c r="H10" t="str">
-        <v>A</v>
-      </c>
-      <c r="I10" t="str">
-        <v>43.25209064</v>
-      </c>
-      <c r="J10" t="str">
-        <v>-77.62772978</v>
-      </c>
-      <c r="K10" t="str">
-        <v>9302-L0089-0447-0062-ED00024</v>
-      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1"/>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12">
         <v>79</v>
       </c>
-      <c r="B12" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D12" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G12" t="str">
-        <v>780</v>
-      </c>
-      <c r="H12" t="str">
-        <v>A</v>
-      </c>
-      <c r="I12" t="str">
-        <v>43.24949774</v>
-      </c>
-      <c r="J12" t="str">
-        <v>-77.6278574</v>
-      </c>
-      <c r="K12" t="str">
-        <v>9302-L0089-0447-0062-ED00025</v>
-      </c>
     </row>
     <row r="13" ht="12.75" customHeight="1"/>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14">
         <v>80</v>
       </c>
-      <c r="B14" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D14" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G14" t="str">
-        <v>780</v>
-      </c>
-      <c r="H14" t="str">
-        <v>A</v>
-      </c>
-      <c r="I14" t="str">
-        <v>43.24710522</v>
-      </c>
-      <c r="J14" t="str">
-        <v>-77.62797813</v>
-      </c>
-      <c r="K14" t="str">
-        <v>9302-L0089-0447-0062-ED00026</v>
-      </c>
     </row>
     <row r="15" ht="12.75" customHeight="1"/>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16">
         <v>81</v>
       </c>
-      <c r="B16" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D16" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G16" t="str">
-        <v>780</v>
-      </c>
-      <c r="H16" t="str">
-        <v>B</v>
-      </c>
-      <c r="I16" t="str">
-        <v>43.24668272</v>
-      </c>
-      <c r="J16" t="str">
-        <v>-77.6280046</v>
-      </c>
-      <c r="K16" t="str">
-        <v>9302-L0089-0447-0062-ED00027</v>
-      </c>
     </row>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18">
         <v>82</v>
       </c>
-      <c r="B18" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D18" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G18" t="str">
-        <v>780</v>
-      </c>
-      <c r="H18" t="str">
-        <v>B</v>
-      </c>
-      <c r="I18" t="str">
-        <v>43.24906143</v>
-      </c>
-      <c r="J18" t="str">
-        <v>-77.62786743</v>
-      </c>
-      <c r="K18" t="str">
-        <v>9302-L0089-0447-0062-ED00028</v>
-      </c>
     </row>
     <row r="19" ht="12.75" customHeight="1"/>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20">
         <v>83</v>
       </c>
-      <c r="B20" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D20" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G20" t="str">
-        <v>780</v>
-      </c>
-      <c r="H20" t="str">
-        <v>B</v>
-      </c>
-      <c r="I20" t="str">
-        <v>43.25169914</v>
-      </c>
-      <c r="J20" t="str">
-        <v>-77.6277642</v>
-      </c>
-      <c r="K20" t="str">
-        <v>9302-L0089-0447-0062-ED00029</v>
-      </c>
     </row>
     <row r="21" ht="12.75" customHeight="1"/>
     <row r="22">
       <c r="A22">
         <v>84</v>
       </c>
-      <c r="B22" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D22" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G22" t="str">
-        <v>780</v>
-      </c>
-      <c r="H22" t="str">
-        <v>C</v>
-      </c>
-      <c r="I22" t="str">
-        <v>43.25128486</v>
-      </c>
-      <c r="J22" t="str">
-        <v>-77.62776504</v>
-      </c>
-      <c r="K22" t="str">
-        <v>9302-L0089-0447-0062-ED00030</v>
-      </c>
     </row>
     <row r="23"/>
     <row r="24">
       <c r="A24">
         <v>85</v>
       </c>
-      <c r="B24" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D24" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G24" t="str">
-        <v>780</v>
-      </c>
-      <c r="H24" t="str">
-        <v>C</v>
-      </c>
-      <c r="I24" t="str">
-        <v>43.24866932</v>
-      </c>
-      <c r="J24" t="str">
-        <v>-77.62790103</v>
-      </c>
-      <c r="K24" t="str">
-        <v>9302-L0089-0447-0062-ED00031</v>
-      </c>
     </row>
     <row r="25"/>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26">
         <v>86</v>
       </c>
-      <c r="B26" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D26" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G26" t="str">
-        <v>780</v>
-      </c>
-      <c r="H26" t="str">
-        <v>C</v>
-      </c>
-      <c r="I26" t="str">
-        <v>43.24629923</v>
-      </c>
-      <c r="J26" t="str">
-        <v>-77.62802669</v>
-      </c>
-      <c r="K26" t="str">
-        <v>9302-L0089-0447-0062-ED00032</v>
-      </c>
     </row>
     <row r="27" ht="12.75" customHeight="1"/>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28">
         <v>87</v>
       </c>
-      <c r="B28" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D28" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G28" t="str">
-        <v>780</v>
-      </c>
-      <c r="H28" t="str">
-        <v>D</v>
-      </c>
-      <c r="I28" t="str">
-        <v>43.24589512</v>
-      </c>
-      <c r="J28" t="str">
-        <v>-77.62804468</v>
-      </c>
-      <c r="K28" t="str">
-        <v>9302-L0089-0447-0062-ED00033</v>
-      </c>
     </row>
     <row r="29" ht="12.75" customHeight="1"/>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30">
         <v>88</v>
       </c>
-      <c r="B30" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D30" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G30" t="str">
-        <v>780</v>
-      </c>
-      <c r="H30" t="str">
-        <v>D</v>
-      </c>
-      <c r="I30" t="str">
-        <v>43.24825693</v>
-      </c>
-      <c r="J30" t="str">
-        <v>-77.62791555</v>
-      </c>
-      <c r="K30" t="str">
-        <v>9302-L0089-0447-0062-ED00034</v>
-      </c>
     </row>
     <row r="31" ht="12.75" customHeight="1"/>
     <row r="32">
       <c r="A32">
         <v>89</v>
       </c>
-      <c r="B32" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D32" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G32" t="str">
-        <v>780</v>
-      </c>
-      <c r="H32" t="str">
-        <v>D</v>
-      </c>
-      <c r="I32" t="str">
-        <v>43.25085924</v>
-      </c>
-      <c r="J32" t="str">
-        <v>-77.62776613</v>
-      </c>
-      <c r="K32" t="str">
-        <v>9302-L0089-0447-0062-ED00035</v>
-      </c>
     </row>
     <row r="33"/>
     <row r="34">
       <c r="A34">
         <v>90</v>
       </c>
-      <c r="B34" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D34" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G34" t="str">
-        <v>780</v>
-      </c>
-      <c r="H34" t="str">
-        <v>E</v>
-      </c>
-      <c r="I34" t="str">
-        <v>43.25044845</v>
-      </c>
-      <c r="J34" t="str">
-        <v>-77.62778327</v>
-      </c>
-      <c r="K34" t="str">
-        <v>9302-L0089-0447-0062-ED00037</v>
-      </c>
     </row>
     <row r="35"/>
     <row r="36">
       <c r="A36">
         <v>91</v>
       </c>
-      <c r="B36" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D36" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G36" t="str">
-        <v>780</v>
-      </c>
-      <c r="H36" t="str">
-        <v>E</v>
-      </c>
-      <c r="I36" t="str">
-        <v>43.24806841</v>
-      </c>
-      <c r="J36" t="str">
-        <v>-77.62794621</v>
-      </c>
-      <c r="K36" t="str">
-        <v>9302-L0089-0447-0062-ED00038</v>
-      </c>
     </row>
     <row r="37"/>
     <row r="38">
       <c r="A38">
         <v>92</v>
       </c>
-      <c r="B38" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D38" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G38" t="str">
-        <v>780</v>
-      </c>
-      <c r="H38" t="str">
-        <v>F</v>
-      </c>
-      <c r="I38" t="str">
-        <v>43.25008108</v>
-      </c>
-      <c r="J38" t="str">
-        <v>-77.62784982</v>
-      </c>
-      <c r="K38" t="str">
-        <v>9302-L0089-0447-0062-ED00039</v>
-      </c>
     </row>
     <row r="39"/>
     <row r="40">
       <c r="A40">
         <v>93</v>
       </c>
-      <c r="B40" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D40" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G40" t="str">
-        <v>780</v>
-      </c>
-      <c r="H40" t="str">
-        <v>F</v>
-      </c>
-      <c r="I40" t="str">
-        <v>43.24764728</v>
-      </c>
-      <c r="J40" t="str">
-        <v>-77.62793678</v>
-      </c>
-      <c r="K40" t="str">
-        <v>9302-L0089-0447-0062-ED00040</v>
-      </c>
     </row>
     <row r="41"/>
     <row r="42">
       <c r="A42">
         <v>94</v>
       </c>
-      <c r="B42" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D42" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G42" t="str">
-        <v>780</v>
-      </c>
-      <c r="H42" t="str">
-        <v>G</v>
-      </c>
-      <c r="I42" t="str">
-        <v>43.25210735</v>
-      </c>
-      <c r="J42" t="str">
-        <v>-77.62797066</v>
-      </c>
-      <c r="K42" t="str">
-        <v>9302-L0089-0447-0062-ED00041</v>
-      </c>
     </row>
     <row r="43"/>
     <row r="44">
       <c r="A44">
         <v>95</v>
-      </c>
-      <c r="B44" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D44" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G44" t="str">
-        <v>780</v>
-      </c>
-      <c r="H44" t="str">
-        <v>1</v>
-      </c>
-      <c r="I44" t="str">
-        <v>43.24501282</v>
-      </c>
-      <c r="J44" t="str">
-        <v>-77.62743364</v>
-      </c>
-      <c r="K44" t="str">
-        <v>9302-L0247-0447-0062-ED00001</v>
       </c>
     </row>
     <row r="45"/>
@@ -6583,539 +5617,119 @@
       <c r="A6">
         <v>96</v>
       </c>
-      <c r="B6" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D6" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G6" t="str">
-        <v>780</v>
-      </c>
-      <c r="H6" t="str">
-        <v>1A</v>
-      </c>
-      <c r="I6" t="str">
-        <v>43.24481724</v>
-      </c>
-      <c r="J6" t="str">
-        <v>-77.62753268</v>
-      </c>
-      <c r="K6" t="str">
-        <v>9302-L0247-0447-0062-ED00012</v>
-      </c>
     </row>
     <row r="7" ht="12.75" customHeight="1"/>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8">
         <v>97</v>
       </c>
-      <c r="B8" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D8" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G8" t="str">
-        <v>780</v>
-      </c>
-      <c r="H8" t="str">
-        <v>1B</v>
-      </c>
-      <c r="I8" t="str">
-        <v>43.24499203</v>
-      </c>
-      <c r="J8" t="str">
-        <v>-77.62728146</v>
-      </c>
-      <c r="K8" t="str">
-        <v>9302-L0247-0447-0062-ED00013</v>
-      </c>
     </row>
     <row r="9" ht="12.75" customHeight="1"/>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10">
         <v>98</v>
       </c>
-      <c r="B10" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D10" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G10" t="str">
-        <v>780</v>
-      </c>
-      <c r="H10" t="str">
-        <v>1C</v>
-      </c>
-      <c r="I10" t="str">
-        <v>43.24460729</v>
-      </c>
-      <c r="J10" t="str">
-        <v>-77.6276289</v>
-      </c>
-      <c r="K10" t="str">
-        <v>9302-L0247-0447-0062-ED00014</v>
-      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1"/>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12">
         <v>99</v>
       </c>
-      <c r="B12" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D12" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G12" t="str">
-        <v>780</v>
-      </c>
-      <c r="H12" t="str">
-        <v>2</v>
-      </c>
-      <c r="I12" t="str">
-        <v>43.24540688</v>
-      </c>
-      <c r="J12" t="str">
-        <v>-77.62739185</v>
-      </c>
-      <c r="K12" t="str">
-        <v>9302-L0247-0447-0062-ED00015</v>
-      </c>
     </row>
     <row r="13" ht="12.75" customHeight="1"/>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14">
         <v>100</v>
       </c>
-      <c r="B14" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D14" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G14" t="str">
-        <v>780</v>
-      </c>
-      <c r="H14" t="str">
-        <v>3</v>
-      </c>
-      <c r="I14" t="str">
-        <v>43.24584077</v>
-      </c>
-      <c r="J14" t="str">
-        <v>-77.62737412</v>
-      </c>
-      <c r="K14" t="str">
-        <v>9302-L0247-0447-0062-ED00017</v>
-      </c>
     </row>
     <row r="15" ht="12.75" customHeight="1"/>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16">
         <v>101</v>
       </c>
-      <c r="B16" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D16" t="str">
-        <v>BELMONT RD</v>
-      </c>
-      <c r="G16" t="str">
-        <v>780</v>
-      </c>
-      <c r="H16" t="str">
-        <v>4</v>
-      </c>
-      <c r="I16" t="str">
-        <v>43.24584747</v>
-      </c>
-      <c r="J16" t="str">
-        <v>-77.62721669</v>
-      </c>
-      <c r="K16" t="str">
-        <v>9302-L0247-0447-0062-ED00018</v>
-      </c>
     </row>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18">
         <v>102</v>
       </c>
-      <c r="B18" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D18" t="str">
-        <v>BISCAYNE DR</v>
-      </c>
-      <c r="G18" t="str">
-        <v>916</v>
-      </c>
-      <c r="H18" t="str">
-        <v>12</v>
-      </c>
-      <c r="I18" t="str">
-        <v>43.25036168</v>
-      </c>
-      <c r="J18" t="str">
-        <v>-77.63177493</v>
-      </c>
-      <c r="K18" t="str">
-        <v>9302-L0089-0447-0070-ED00004</v>
-      </c>
     </row>
     <row r="19" ht="12.75" customHeight="1"/>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20">
         <v>103</v>
       </c>
-      <c r="B20" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D20" t="str">
-        <v>BISCAYNE DR</v>
-      </c>
-      <c r="G20" t="str">
-        <v>916</v>
-      </c>
-      <c r="H20" t="str">
-        <v>11</v>
-      </c>
-      <c r="I20" t="str">
-        <v>43.24940519</v>
-      </c>
-      <c r="J20" t="str">
-        <v>-77.63182659</v>
-      </c>
-      <c r="K20" t="str">
-        <v>9302-L0247-0447-0070-ED00003</v>
-      </c>
     </row>
     <row r="21" ht="12.75" customHeight="1"/>
     <row r="22">
       <c r="A22">
         <v>104</v>
       </c>
-      <c r="B22" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D22" t="str">
-        <v>BISCAYNE DR</v>
-      </c>
-      <c r="G22" t="str">
-        <v>916</v>
-      </c>
-      <c r="H22" t="str">
-        <v>A</v>
-      </c>
-      <c r="I22" t="str">
-        <v>43.24572959</v>
-      </c>
-      <c r="J22" t="str">
-        <v>-77.63268165</v>
-      </c>
-      <c r="K22" t="str">
-        <v>9302-L0247-0447-0070-ED00017</v>
-      </c>
     </row>
     <row r="23"/>
     <row r="24">
       <c r="A24">
         <v>105</v>
       </c>
-      <c r="B24" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D24" t="str">
-        <v>BISCAYNE DR</v>
-      </c>
-      <c r="G24" t="str">
-        <v>916</v>
-      </c>
-      <c r="H24" t="str">
-        <v>B</v>
-      </c>
-      <c r="I24" t="str">
-        <v>43.24591841</v>
-      </c>
-      <c r="J24" t="str">
-        <v>-77.63266817</v>
-      </c>
-      <c r="K24" t="str">
-        <v>9302-L0247-0447-0070-ED00018</v>
-      </c>
     </row>
     <row r="25"/>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26">
         <v>106</v>
       </c>
-      <c r="B26" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D26" t="str">
-        <v>BISCAYNE DR</v>
-      </c>
-      <c r="G26" t="str">
-        <v>916</v>
-      </c>
-      <c r="H26" t="str">
-        <v>C</v>
-      </c>
-      <c r="I26" t="str">
-        <v>43.24633213</v>
-      </c>
-      <c r="J26" t="str">
-        <v>-77.63263308</v>
-      </c>
-      <c r="K26" t="str">
-        <v>9302-L0247-0447-0070-ED00019</v>
-      </c>
     </row>
     <row r="27" ht="12.75" customHeight="1"/>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28">
         <v>107</v>
       </c>
-      <c r="B28" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D28" t="str">
-        <v>BISCAYNE DR</v>
-      </c>
-      <c r="G28" t="str">
-        <v>916</v>
-      </c>
-      <c r="H28" t="str">
-        <v>D</v>
-      </c>
-      <c r="I28" t="str">
-        <v>43.24672723</v>
-      </c>
-      <c r="J28" t="str">
-        <v>-77.63262647</v>
-      </c>
-      <c r="K28" t="str">
-        <v>9302-L0247-0447-0070-ED00020</v>
-      </c>
     </row>
     <row r="29" ht="12.75" customHeight="1"/>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30">
         <v>108</v>
       </c>
-      <c r="B30" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D30" t="str">
-        <v>BISCAYNE DR</v>
-      </c>
-      <c r="G30" t="str">
-        <v>916</v>
-      </c>
-      <c r="H30" t="str">
-        <v>E</v>
-      </c>
-      <c r="I30" t="str">
-        <v>43.24716135</v>
-      </c>
-      <c r="J30" t="str">
-        <v>-77.63262878</v>
-      </c>
-      <c r="K30" t="str">
-        <v>9302-L0247-0447-0070-ED00021</v>
-      </c>
     </row>
     <row r="31" ht="12.75" customHeight="1"/>
     <row r="32">
       <c r="A32">
         <v>109</v>
       </c>
-      <c r="B32" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D32" t="str">
-        <v>BISCAYNE DR</v>
-      </c>
-      <c r="G32" t="str">
-        <v>916</v>
-      </c>
-      <c r="H32" t="str">
-        <v>F</v>
-      </c>
-      <c r="I32" t="str">
-        <v>43.24755135</v>
-      </c>
-      <c r="J32" t="str">
-        <v>-77.6325858</v>
-      </c>
-      <c r="K32" t="str">
-        <v>9302-L0247-0447-0070-ED00022</v>
-      </c>
     </row>
     <row r="33"/>
     <row r="34">
       <c r="A34">
         <v>110</v>
       </c>
-      <c r="B34" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D34" t="str">
-        <v>BISCAYNE DR</v>
-      </c>
-      <c r="G34" t="str">
-        <v>916</v>
-      </c>
-      <c r="H34" t="str">
-        <v>G</v>
-      </c>
-      <c r="I34" t="str">
-        <v>43.24796897</v>
-      </c>
-      <c r="J34" t="str">
-        <v>-77.6325781</v>
-      </c>
-      <c r="K34" t="str">
-        <v>9302-L0247-0447-0070-ED00023</v>
-      </c>
     </row>
     <row r="35"/>
     <row r="36">
       <c r="A36">
         <v>111</v>
       </c>
-      <c r="B36" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D36" t="str">
-        <v>BISCAYNE DR</v>
-      </c>
-      <c r="G36" t="str">
-        <v>916</v>
-      </c>
-      <c r="H36" t="str">
-        <v>G1</v>
-      </c>
-      <c r="I36" t="str">
-        <v>43.24785988</v>
-      </c>
-      <c r="J36" t="str">
-        <v>-77.63257241</v>
-      </c>
-      <c r="K36" t="str">
-        <v>9302-L0247-0447-0070-ED00024</v>
-      </c>
     </row>
     <row r="37"/>
     <row r="38">
       <c r="A38">
         <v>112</v>
       </c>
-      <c r="B38" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D38" t="str">
-        <v>BISCAYNE DR</v>
-      </c>
-      <c r="G38" t="str">
-        <v>916</v>
-      </c>
-      <c r="H38" t="str">
-        <v>H</v>
-      </c>
-      <c r="I38" t="str">
-        <v>43.24837505</v>
-      </c>
-      <c r="J38" t="str">
-        <v>-77.63255257</v>
-      </c>
-      <c r="K38" t="str">
-        <v>9302-L0247-0447-0070-ED00025</v>
-      </c>
     </row>
     <row r="39"/>
     <row r="40">
       <c r="A40">
         <v>113</v>
       </c>
-      <c r="B40" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D40" t="str">
-        <v>BISCAYNE DR</v>
-      </c>
-      <c r="G40" t="str">
-        <v>916</v>
-      </c>
-      <c r="H40" t="str">
-        <v>J</v>
-      </c>
-      <c r="I40" t="str">
-        <v>43.24878905</v>
-      </c>
-      <c r="J40" t="str">
-        <v>-77.63260099</v>
-      </c>
-      <c r="K40" t="str">
-        <v>9302-L0247-0447-0070-ED00026</v>
-      </c>
     </row>
     <row r="41"/>
     <row r="42">
       <c r="A42">
         <v>114</v>
       </c>
-      <c r="B42" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D42" t="str">
-        <v>BISCAYNE DR</v>
-      </c>
-      <c r="G42" t="str">
-        <v>916</v>
-      </c>
-      <c r="H42" t="str">
-        <v>K</v>
-      </c>
-      <c r="I42" t="str">
-        <v>43.24942248</v>
-      </c>
-      <c r="J42" t="str">
-        <v>-77.63276404</v>
-      </c>
-      <c r="K42" t="str">
-        <v>9302-L0247-0447-0070-ED00027</v>
-      </c>
     </row>
     <row r="43"/>
     <row r="44">
       <c r="A44">
         <v>115</v>
-      </c>
-      <c r="B44" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D44" t="str">
-        <v>BISCAYNE DR</v>
-      </c>
-      <c r="G44" t="str">
-        <v>916</v>
-      </c>
-      <c r="H44" t="str">
-        <v>L</v>
-      </c>
-      <c r="I44" t="str">
-        <v>43.24941445</v>
-      </c>
-      <c r="J44" t="str">
-        <v>-77.63217786</v>
-      </c>
-      <c r="K44" t="str">
-        <v>9302-L0247-0447-0070-ED00028</v>
       </c>
     </row>
     <row r="45"/>
@@ -7739,53 +6353,11 @@
       <c r="A6">
         <v>116</v>
       </c>
-      <c r="B6" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D6" t="str">
-        <v>BISCAYNE DR</v>
-      </c>
-      <c r="G6" t="str">
-        <v>916</v>
-      </c>
-      <c r="H6" t="str">
-        <v>M</v>
-      </c>
-      <c r="I6" t="str">
-        <v>43.24919993</v>
-      </c>
-      <c r="J6" t="str">
-        <v>-77.63251813</v>
-      </c>
-      <c r="K6" t="str">
-        <v>9302-L0247-0447-0070-ED00029</v>
-      </c>
     </row>
     <row r="7" ht="12.75" customHeight="1"/>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8">
         <v>117</v>
-      </c>
-      <c r="B8" t="str">
-        <v>GREECE</v>
-      </c>
-      <c r="D8" t="str">
-        <v>BISCAYNE DR</v>
-      </c>
-      <c r="G8" t="str">
-        <v>916</v>
-      </c>
-      <c r="H8" t="str">
-        <v>N</v>
-      </c>
-      <c r="I8" t="str">
-        <v>43.24940865</v>
-      </c>
-      <c r="J8" t="str">
-        <v>-77.63251207</v>
-      </c>
-      <c r="K8" t="str">
-        <v>9302-L0247-0447-0070-ED00030</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1"/>
